--- a/outputs/elements_pca_coordinates.xlsx
+++ b/outputs/elements_pca_coordinates.xlsx
@@ -457,10 +457,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5.474702630094242</v>
+        <v>-0.4182096372710192</v>
       </c>
       <c r="B2" t="n">
-        <v>-6.72817855450627</v>
+        <v>-3.713422089735073</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -475,10 +475,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6.728150342702677</v>
+        <v>-3.391695515877839</v>
       </c>
       <c r="B3" t="n">
-        <v>-2.068250686185932</v>
+        <v>0.241896988401429</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -493,10 +493,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>7.289158046408503</v>
+        <v>-4.38211703429352</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9265903337936353</v>
+        <v>3.111347422610097</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -511,10 +511,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>8.023700532039113</v>
+        <v>-5.497343408146532</v>
       </c>
       <c r="B5" t="n">
-        <v>3.797301822073719</v>
+        <v>5.919953086236715</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -529,10 +529,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>9.734038037361435</v>
+        <v>-7.439665473126596</v>
       </c>
       <c r="B6" t="n">
-        <v>4.784647818291647</v>
+        <v>-1.588184543549574</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -547,10 +547,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>10.38437713566785</v>
+        <v>-8.288680934652424</v>
       </c>
       <c r="B7" t="n">
-        <v>5.964436430431934</v>
+        <v>-3.106271468356208</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -565,10 +565,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>11.43767420006217</v>
+        <v>-9.304593643090323</v>
       </c>
       <c r="B8" t="n">
-        <v>8.430267670915898</v>
+        <v>-3.450681575330975</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -583,10 +583,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3.808141164429597</v>
+        <v>1.709056522887517</v>
       </c>
       <c r="B9" t="n">
-        <v>-7.428553073042345</v>
+        <v>-4.299239587769294</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -601,10 +601,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5.111230553616659</v>
+        <v>-1.241288322583562</v>
       </c>
       <c r="B10" t="n">
-        <v>-3.928939986977252</v>
+        <v>-2.118166290184588</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -619,10 +619,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5.758027881080968</v>
+        <v>-2.332583147270077</v>
       </c>
       <c r="B11" t="n">
-        <v>-1.73314008689285</v>
+        <v>-0.1336916845361884</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -637,10 +637,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>6.719014736649668</v>
+        <v>-4.080496596971023</v>
       </c>
       <c r="B12" t="n">
-        <v>0.9144585350969059</v>
+        <v>1.708262863645682</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -655,10 +655,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>7.489385103064218</v>
+        <v>-5.092505656863188</v>
       </c>
       <c r="B13" t="n">
-        <v>2.132821550590308</v>
+        <v>-2.151115695348079</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -673,10 +673,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>8.10538013133238</v>
+        <v>-6.031038407634749</v>
       </c>
       <c r="B14" t="n">
-        <v>3.350364838894454</v>
+        <v>-3.311160786444992</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -691,10 +691,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>8.882453237615795</v>
+        <v>-6.793066732523382</v>
       </c>
       <c r="B15" t="n">
-        <v>5.12568137210785</v>
+        <v>-4.281634599695364</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -709,10 +709,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1.905643768148434</v>
+        <v>4.538974834671085</v>
       </c>
       <c r="B16" t="n">
-        <v>-9.260327719796074</v>
+        <v>-5.973579422430835</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -727,10 +727,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2.832922161115194</v>
+        <v>2.081954233828245</v>
       </c>
       <c r="B17" t="n">
-        <v>-6.36337421326031</v>
+        <v>-3.313053230551562</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -745,10 +745,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2.921965608043356</v>
+        <v>1.566462082142308</v>
       </c>
       <c r="B18" t="n">
-        <v>-4.603503406733899</v>
+        <v>-0.6934321381077821</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -763,10 +763,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>3.272766002800542</v>
+        <v>0.5275724640658878</v>
       </c>
       <c r="B19" t="n">
-        <v>-3.003832446698902</v>
+        <v>0.6432604315449896</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -781,10 +781,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>3.462668996499572</v>
+        <v>-0.0385074345293363</v>
       </c>
       <c r="B20" t="n">
-        <v>-2.031008542044161</v>
+        <v>1.727193116443259</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -799,10 +799,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>3.513429475988068</v>
+        <v>-0.1557883561562296</v>
       </c>
       <c r="B21" t="n">
-        <v>-2.008048697069702</v>
+        <v>1.574972947017688</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -817,10 +817,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>3.736844823873378</v>
+        <v>-0.8926684324214812</v>
       </c>
       <c r="B22" t="n">
-        <v>-1.477956066651177</v>
+        <v>0.4106289387679009</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -835,10 +835,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>3.746274986265593</v>
+        <v>-1.369118355937335</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.6061647347479429</v>
+        <v>1.824630089358933</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -853,10 +853,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>3.648444668560777</v>
+        <v>-1.27312115905249</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.3750397890205369</v>
+        <v>2.222793161947467</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -871,10 +871,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>3.671256436631463</v>
+        <v>-1.483818668543475</v>
       </c>
       <c r="B25" t="n">
-        <v>-0.06017995879818547</v>
+        <v>2.3782627302669</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -889,10 +889,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>3.560004229158858</v>
+        <v>-1.277032014664814</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.6084728543998597</v>
+        <v>2.063431221294973</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -907,10 +907,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>3.805629781491297</v>
+        <v>-1.888754945628444</v>
       </c>
       <c r="B27" t="n">
-        <v>-0.4782952556439778</v>
+        <v>-0.174124174241236</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -925,10 +925,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>3.945596552581465</v>
+        <v>-2.397386642584773</v>
       </c>
       <c r="B28" t="n">
-        <v>-0.08384150700809355</v>
+        <v>-0.1261809988949564</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -943,10 +943,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>4.399073229002682</v>
+        <v>-3.224709294404791</v>
       </c>
       <c r="B29" t="n">
-        <v>1.815082873847353</v>
+        <v>1.239108428745751</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -961,10 +961,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>5.183159588985962</v>
+        <v>-4.513302553079187</v>
       </c>
       <c r="B30" t="n">
-        <v>3.040225843847036</v>
+        <v>-0.0664529732513672</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -979,10 +979,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>5.724641258668141</v>
+        <v>-5.493914772908267</v>
       </c>
       <c r="B31" t="n">
-        <v>4.364278017007763</v>
+        <v>-2.450567964129066</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -997,10 +997,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>6.377328837243084</v>
+        <v>-6.203610795933369</v>
       </c>
       <c r="B32" t="n">
-        <v>5.798391581480699</v>
+        <v>-4.080164858483999</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1015,10 +1015,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>-0.4895342752508293</v>
+        <v>5.780512531506334</v>
       </c>
       <c r="B33" t="n">
-        <v>-9.015805722913834</v>
+        <v>-6.336042261916588</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1033,10 +1033,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.3669203085152705</v>
+        <v>3.385848272723725</v>
       </c>
       <c r="B34" t="n">
-        <v>-6.307422299397498</v>
+        <v>-4.027411983515826</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1051,10 +1051,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.337411955073017</v>
+        <v>2.972130531624064</v>
       </c>
       <c r="B35" t="n">
-        <v>-4.572139787854642</v>
+        <v>-0.8584620375277525</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1069,10 +1069,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.5889467456473902</v>
+        <v>1.997895393742869</v>
       </c>
       <c r="B36" t="n">
-        <v>-2.827445386661878</v>
+        <v>1.493607578622445</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1087,10 +1087,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.6558427607315223</v>
+        <v>1.599123283164096</v>
       </c>
       <c r="B37" t="n">
-        <v>-1.689911561860132</v>
+        <v>3.430767749457087</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1105,10 +1105,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.7287229104600821</v>
+        <v>0.970057636291937</v>
       </c>
       <c r="B38" t="n">
-        <v>-0.8518120986073638</v>
+        <v>4.038008148119078</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1123,10 +1123,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.6975618563392838</v>
+        <v>0.4843980370547347</v>
       </c>
       <c r="B39" t="n">
-        <v>-0.05438179937512441</v>
+        <v>3.994656508794923</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1141,10 +1141,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.8468762661731344</v>
+        <v>0.1178868630248492</v>
       </c>
       <c r="B40" t="n">
-        <v>0.2506734252050613</v>
+        <v>4.171207844514418</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1159,10 +1159,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.8386513404046394</v>
+        <v>-0.04079221420668586</v>
       </c>
       <c r="B41" t="n">
-        <v>0.3875786645991797</v>
+        <v>3.702626361050688</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1177,10 +1177,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.760931586699579</v>
+        <v>-1.853391052853826</v>
       </c>
       <c r="B42" t="n">
-        <v>1.381909490092108</v>
+        <v>2.468010054320749</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1195,10 +1195,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.8925599875487098</v>
+        <v>-0.2469384757480725</v>
       </c>
       <c r="B43" t="n">
-        <v>-0.3280687120755655</v>
+        <v>0.5371561544895094</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1213,10 +1213,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1.067471402066015</v>
+        <v>-0.94763059923077</v>
       </c>
       <c r="B44" t="n">
-        <v>-0.1076789786606991</v>
+        <v>-1.053828827214892</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1231,10 +1231,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.9863387789662321</v>
+        <v>-1.231618396338982</v>
       </c>
       <c r="B45" t="n">
-        <v>0.2511212105632674</v>
+        <v>-0.7072447686923927</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1249,10 +1249,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1.3106215949119</v>
+        <v>-1.989551342754482</v>
       </c>
       <c r="B46" t="n">
-        <v>1.720588401529001</v>
+        <v>0.005725879492548545</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1267,10 +1267,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1.757202973048993</v>
+        <v>-2.871053269148816</v>
       </c>
       <c r="B47" t="n">
-        <v>2.936098787885741</v>
+        <v>-0.6390117597981347</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1285,10 +1285,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>2.182451569996966</v>
+        <v>-3.891316482415623</v>
       </c>
       <c r="B48" t="n">
-        <v>4.308705384909839</v>
+        <v>-2.779450600358756</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1303,10 +1303,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>2.762571591485001</v>
+        <v>-4.604574859571185</v>
       </c>
       <c r="B49" t="n">
-        <v>5.640665529557668</v>
+        <v>-4.558918734727234</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1321,10 +1321,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>-3.977502303426943</v>
+        <v>7.511346995846144</v>
       </c>
       <c r="B50" t="n">
-        <v>-8.914234501326801</v>
+        <v>-7.08520575855101</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1339,10 +1339,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-3.026141992426759</v>
+        <v>4.713106812631248</v>
       </c>
       <c r="B51" t="n">
-        <v>-5.824348777690955</v>
+        <v>-4.469741071030847</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1357,10 +1357,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-2.966236956430878</v>
+        <v>3.912956437360301</v>
       </c>
       <c r="B52" t="n">
-        <v>-3.921380138724272</v>
+        <v>-1.450228426948095</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-3.175742150699439</v>
+        <v>3.874169461029691</v>
       </c>
       <c r="B53" t="n">
-        <v>-3.134605213265943</v>
+        <v>-1.114188163968597</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1393,10 +1393,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-3.668569659108752</v>
+        <v>4.193016399757094</v>
       </c>
       <c r="B54" t="n">
-        <v>-3.654304134821844</v>
+        <v>-1.413519360157587</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1411,10 +1411,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-3.779640760376572</v>
+        <v>3.934494131264291</v>
       </c>
       <c r="B55" t="n">
-        <v>-3.206688827013084</v>
+        <v>-1.709410713598907</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1429,10 +1429,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>-3.585028671946865</v>
+        <v>3.783123974823499</v>
       </c>
       <c r="B56" t="n">
-        <v>-3.331765094270153</v>
+        <v>-1.40509322191559</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1447,10 +1447,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-4.14561287209455</v>
+        <v>3.74136573431961</v>
       </c>
       <c r="B57" t="n">
-        <v>-3.022450937927293</v>
+        <v>-2.048783830690172</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1465,10 +1465,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>-4.358299793610472</v>
+        <v>3.815012432179418</v>
       </c>
       <c r="B58" t="n">
-        <v>-2.99477637698071</v>
+        <v>-2.614256644840572</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1483,10 +1483,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-4.720745315313012</v>
+        <v>3.593925493664492</v>
       </c>
       <c r="B59" t="n">
-        <v>-2.176837075079467</v>
+        <v>-0.2003754989414566</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1501,10 +1501,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>-5.014292418740263</v>
+        <v>3.67264869258751</v>
       </c>
       <c r="B60" t="n">
-        <v>-1.938979993864072</v>
+        <v>-0.2000119653424322</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1519,10 +1519,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>-5.148356835339468</v>
+        <v>3.414696877632897</v>
       </c>
       <c r="B61" t="n">
-        <v>-1.77076910893712</v>
+        <v>-0.5990334712904997</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1537,10 +1537,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>-5.434894922315192</v>
+        <v>3.41579516401786</v>
       </c>
       <c r="B62" t="n">
-        <v>-1.50479738694889</v>
+        <v>-0.2950590283757724</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1555,10 +1555,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>-5.723323273085533</v>
+        <v>3.365754834598508</v>
       </c>
       <c r="B63" t="n">
-        <v>-1.188929636370126</v>
+        <v>0.07243829089801776</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -1573,10 +1573,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>-5.861570666423282</v>
+        <v>3.171437069163807</v>
       </c>
       <c r="B64" t="n">
-        <v>-0.920647569526014</v>
+        <v>-0.5274047567568698</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1591,10 +1591,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>-6.074749573330735</v>
+        <v>3.172346682636078</v>
       </c>
       <c r="B65" t="n">
-        <v>-1.105799382253737</v>
+        <v>-1.626417211016719</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -1609,10 +1609,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-6.638366335894771</v>
+        <v>3.356999618158155</v>
       </c>
       <c r="B66" t="n">
-        <v>-0.5619376365746103</v>
+        <v>0.8109216817117209</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -1627,10 +1627,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-6.672325775946279</v>
+        <v>2.786026613150504</v>
       </c>
       <c r="B67" t="n">
-        <v>1.198425221757294</v>
+        <v>3.271344582995282</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -1645,10 +1645,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-6.897699613664339</v>
+        <v>2.382023521696865</v>
       </c>
       <c r="B68" t="n">
-        <v>2.693157121957251</v>
+        <v>5.370487952632977</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -1663,10 +1663,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-7.00388237486507</v>
+        <v>1.727257235237536</v>
       </c>
       <c r="B69" t="n">
-        <v>4.076699529073144</v>
+        <v>6.994128041259327</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -1681,10 +1681,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>-7.190719047165715</v>
+        <v>1.586459017120573</v>
       </c>
       <c r="B70" t="n">
-        <v>4.567246245239677</v>
+        <v>6.566930712751036</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -1699,10 +1699,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>-7.34471572587695</v>
+        <v>1.087665137323783</v>
       </c>
       <c r="B71" t="n">
-        <v>5.605669413586521</v>
+        <v>7.119508890342339</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -1717,10 +1717,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-7.306136731999816</v>
+        <v>0.8345116107725761</v>
       </c>
       <c r="B72" t="n">
-        <v>5.601230175923606</v>
+        <v>6.081327277400626</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -1735,10 +1735,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-7.319573561977494</v>
+        <v>0.6899374522663169</v>
       </c>
       <c r="B73" t="n">
-        <v>5.709769445856189</v>
+        <v>5.123435459053839</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -1753,10 +1753,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>-7.467414173715878</v>
+        <v>0.5814470794934545</v>
       </c>
       <c r="B74" t="n">
-        <v>5.606405357806433</v>
+        <v>2.757221034481494</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -1771,10 +1771,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>-7.073044910323108</v>
+        <v>-0.3398769325672905</v>
       </c>
       <c r="B75" t="n">
-        <v>5.163128295554338</v>
+        <v>-0.3510924733944591</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -1789,10 +1789,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-7.355884484459013</v>
+        <v>-0.03538417991063479</v>
       </c>
       <c r="B76" t="n">
-        <v>4.338599836016333</v>
+        <v>-0.8812363930887569</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -1807,10 +1807,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-7.241232323528809</v>
+        <v>-0.6562547922765806</v>
       </c>
       <c r="B77" t="n">
-        <v>5.494211951419708</v>
+        <v>-0.8086610393837486</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -1825,10 +1825,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-7.027054176873951</v>
+        <v>-1.488338860526245</v>
       </c>
       <c r="B78" t="n">
-        <v>6.396515150684014</v>
+        <v>-0.6564793374815714</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -1843,10 +1843,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-12.11188329925247</v>
+        <v>4.736194031660368</v>
       </c>
       <c r="B79" t="n">
-        <v>1.210731446126126</v>
+        <v>0.811146730114069</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -1861,10 +1861,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>-12.63399278978765</v>
+        <v>3.916148196577168</v>
       </c>
       <c r="B80" t="n">
-        <v>2.79134694473759</v>
+        <v>1.561295062782408</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
